--- a/Assets/_Excel/massif.xlsx
+++ b/Assets/_Excel/massif.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAF24FA-E3C9-4DC6-972B-7673CCBB1EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E121DD8-F4EE-452F-B809-4C03941A1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="1290" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
   <si>
     <t>Id</t>
   </si>
@@ -149,6 +149,14 @@
   </si>
   <si>
     <t>反坦克地雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Interact</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交互</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -488,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -521,8 +529,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,8 +558,11 @@
       <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>10001</v>
       </c>
@@ -573,8 +587,11 @@
       <c r="H3" s="1">
         <v>10008</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>10002</v>
       </c>
@@ -599,8 +616,11 @@
       <c r="H4" s="1">
         <v>10008</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>10003</v>
       </c>
@@ -625,8 +645,11 @@
       <c r="H5" s="1">
         <v>10008</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>10004</v>
       </c>
@@ -651,8 +674,11 @@
       <c r="H6" s="1">
         <v>10009</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>10005</v>
       </c>
@@ -677,8 +703,11 @@
       <c r="H7" s="1">
         <v>10009</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>10006</v>
       </c>
@@ -703,8 +732,11 @@
       <c r="H8" s="1">
         <v>10009</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>10007</v>
       </c>
@@ -729,8 +761,11 @@
       <c r="H9" s="1">
         <v>10009</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>10008</v>
       </c>
@@ -755,8 +790,11 @@
       <c r="H10" s="1">
         <v>10010</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>10009</v>
       </c>
@@ -781,8 +819,11 @@
       <c r="H11" s="1">
         <v>10010</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>10010</v>
       </c>
@@ -807,8 +848,11 @@
       <c r="H12" s="1">
         <v>10010</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>10011</v>
       </c>
@@ -833,8 +877,11 @@
       <c r="H13" s="1">
         <v>10010</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>10012</v>
       </c>
@@ -859,8 +906,11 @@
       <c r="H14" s="1">
         <v>10009</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>10013</v>
       </c>
@@ -885,8 +935,11 @@
       <c r="H15" s="1">
         <v>10011</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>10014</v>
       </c>
@@ -911,8 +964,11 @@
       <c r="H16" s="1">
         <v>10011</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>10015</v>
       </c>
@@ -936,6 +992,9 @@
       </c>
       <c r="H17" s="1">
         <v>10011</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/_Excel/massif.xlsx
+++ b/Assets/_Excel/massif.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\unity\BattleFlagGameStudy\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E121DD8-F4EE-452F-B809-4C03941A1A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{883CD722-7781-48DA-B213-49E6A60CEDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1290" windowWidth="27675" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>Id</t>
   </si>
@@ -124,31 +124,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弹药箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>医疗箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>弹药库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>医院</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陷阱/铁丝网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反步兵地雷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反坦克地雷</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -496,10 +476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -530,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -559,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -788,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="H10" s="1">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I10" s="1">
         <v>1</v>
@@ -817,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="H11" s="1">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I11" s="1">
         <v>1</v>
@@ -834,167 +814,22 @@
         <v>1</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E12" s="1">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
       <c r="G12" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H12" s="1">
-        <v>10010</v>
+        <v>10009</v>
       </c>
       <c r="I12" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="1">
-        <v>10011</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="1">
-        <v>1</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G13" s="1">
-        <v>2</v>
-      </c>
-      <c r="H13" s="1">
-        <v>10010</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1">
-        <v>10012</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="1">
-        <v>1</v>
-      </c>
-      <c r="D14" s="1">
-        <v>5</v>
-      </c>
-      <c r="E14" s="1">
-        <v>20</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G14" s="1">
-        <v>5</v>
-      </c>
-      <c r="H14" s="1">
-        <v>10009</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="1">
-        <v>10013</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="1">
-        <v>3</v>
-      </c>
-      <c r="H15" s="1">
-        <v>10011</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="1">
-        <v>10014</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C16" s="1">
-        <v>1</v>
-      </c>
-      <c r="D16" s="1">
-        <v>2</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>10011</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="1">
-        <v>10015</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1">
-        <v>2</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="1">
-        <v>3</v>
-      </c>
-      <c r="H17" s="1">
-        <v>10011</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
